--- a/Documentation/Time.xlsx
+++ b/Documentation/Time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeangus/Documents/School/Fall_2021/EECS_448/EECS-448_Project-2_G11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbthi\Documents\GitHub\EECS-448_Project-2_G11\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95816AE8-E97F-3645-94B7-07D562F38383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5513BC02-B27B-41AC-979F-430F57335A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,16 +407,16 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="140.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H1" t="s">
         <v>7</v>
       </c>
@@ -427,21 +427,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(C6:G13)</f>
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -461,7 +461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>44472</v>
       </c>
@@ -475,7 +475,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>44473</v>
       </c>
@@ -495,7 +495,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>44474</v>
       </c>
@@ -512,10 +512,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>44475</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="D9">
         <v>3.5</v>
       </c>
@@ -523,7 +526,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>44476</v>
       </c>
@@ -536,8 +539,11 @@
       <c r="F10">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>44477</v>
       </c>
@@ -547,18 +553,30 @@
       <c r="E11">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>44478</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>44479</v>
       </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
       <c r="F13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
